--- a/Boldis Áron/szoftvertesztelés/TeszteljükLe.xlsx
+++ b/Boldis Áron/szoftvertesztelés/TeszteljükLe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BoldisAron\Desktop\22_11DC-\Boldis Áron\szoftvertesztelés\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ABCF5-B923-4BE7-BEF4-2088449D8A98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481321E9-27C0-41CB-A3DA-992C6ABEFB37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tesztesetek" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="271">
   <si>
     <t>Teszteset száma</t>
   </si>
@@ -685,9 +685,6 @@
     <t>valószínűleg ezt is levágja</t>
   </si>
   <si>
-    <t>90999999999999999999999</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -1240,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1334,10 +1331,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -2299,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2361,7 +2360,7 @@
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2387,7 +2386,7 @@
       <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -2413,7 +2412,7 @@
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -2439,7 +2438,7 @@
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -2465,7 +2464,7 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -2489,9 +2488,9 @@
         <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2517,7 +2516,7 @@
       <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="12">
@@ -2543,7 +2542,7 @@
       <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="12">
@@ -2569,7 +2568,7 @@
       <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12">
@@ -2595,7 +2594,7 @@
       <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2621,11 +2620,11 @@
       <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="55" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3656,19 +3655,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="C1" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="52" t="s">
         <v>238</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>239</v>
       </c>
       <c r="F1" s="53"/>
       <c r="G1" s="53"/>
@@ -3694,19 +3693,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
         <v>243</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>244</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
@@ -3732,19 +3731,19 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="C3" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="D3" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>248</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>249</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
@@ -3770,19 +3769,19 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="C4" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="D4" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="E4" s="53" t="s">
         <v>253</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>254</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
@@ -3808,19 +3807,19 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="C5" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E5" s="53" t="s">
         <v>258</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>259</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -3846,19 +3845,19 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="C6" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="E6" s="53" t="s">
         <v>263</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>264</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -3884,19 +3883,19 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="E7" s="53" t="s">
         <v>268</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>269</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -32093,7 +32092,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -32104,7 +32103,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="25" t="s">
         <v>70</v>
       </c>
@@ -32113,7 +32112,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="25" t="s">
         <v>72</v>
       </c>
@@ -32122,7 +32121,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="25" t="s">
         <v>74</v>
       </c>
@@ -32131,7 +32130,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -32142,7 +32141,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="25" t="s">
         <v>79</v>
       </c>
@@ -32151,7 +32150,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="25" t="s">
         <v>81</v>
       </c>
@@ -32160,7 +32159,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -32171,7 +32170,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="25" t="s">
         <v>86</v>
       </c>
@@ -32180,7 +32179,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -32191,35 +32190,35 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="30"/>
       <c r="C12" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="30"/>
       <c r="C13" s="26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="30"/>
       <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="25" t="s">
         <v>7</v>
       </c>
@@ -32228,7 +32227,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="25" t="s">
         <v>96</v>
       </c>
@@ -32237,7 +32236,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="25" t="s">
         <v>2</v>
       </c>
@@ -33174,7 +33173,9 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33220,7 +33221,7 @@
       <c r="E2" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="59" t="s">
         <v>202</v>
       </c>
     </row>
@@ -33240,7 +33241,7 @@
       <c r="E3" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="60" t="s">
         <v>204</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -33263,7 +33264,7 @@
       <c r="E4" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="60" t="s">
         <v>204</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -33286,8 +33287,8 @@
       <c r="E5" s="18">
         <v>909999999</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>206</v>
+      <c r="F5" s="18">
+        <v>9.0999999999999901E+22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -33298,7 +33299,7 @@
         <v>199</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>73</v>
@@ -33306,11 +33307,11 @@
       <c r="E6" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -33330,10 +33331,10 @@
         <v>9985</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -33352,11 +33353,11 @@
       <c r="E8" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -33367,7 +33368,7 @@
         <v>199</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>195</v>
@@ -33375,11 +33376,11 @@
       <c r="E9" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -33387,10 +33388,10 @@
         <v>160</v>
       </c>
       <c r="B12" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>212</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -33398,13 +33399,16 @@
         <v>167</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>215</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F3AD1B3-D481-4BB3-818B-5F7DF242F121}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33426,27 +33430,27 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="C2" s="49">
         <f>100000</f>
@@ -33463,10 +33467,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="C3" s="49">
         <v>699999</v>
@@ -33482,10 +33486,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="49">
         <v>240000</v>
@@ -33500,10 +33504,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="C5" s="49">
         <f>749500*1.27</f>
@@ -33522,10 +33526,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="C6" s="49">
         <f>380000*1.27</f>
@@ -33541,10 +33545,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="C7" s="49">
         <v>319000</v>
@@ -33559,10 +33563,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="C8" s="49">
         <v>380000</v>
@@ -33577,10 +33581,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="49">
         <f>490000*1.27</f>
